--- a/utilities/Excel_Sheets/Products/NGP_BALLPARK.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP_BALLPARK.xlsx
@@ -664,10 +664,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43284</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="5">
-        <v>200000001</v>
+        <v>1000000</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>25</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43284</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43284</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="5">
-        <v>1000000</v>
+        <v>20000001</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>25</v>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43284</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>

--- a/utilities/Excel_Sheets/Products/NGP_BALLPARK.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP_BALLPARK.xlsx
@@ -743,7 +743,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43284</v>
+        <v>43354</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43284</v>
+        <v>43354</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -4161,7 +4161,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43284</v>
+        <v>43354</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="5">
-        <v>20000001</v>
+        <v>1000000</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>25</v>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43284</v>
+        <v>43354</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
